--- a/StructureDefinition-ext-R5-BiologicallyDerivedProductDispense.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProductDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProductDispense.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProductDispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -388,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.basedOn</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -435,6 +438,9 @@
     <t>Extension.extension:partOf.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.partOf</t>
+  </si>
+  <si>
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
@@ -466,6 +472,9 @@
     <t>Extension.extension:status.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.status</t>
+  </si>
+  <si>
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
@@ -497,6 +506,9 @@
     <t>Extension.extension:originRelationshipType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.originRelationshipType</t>
+  </si>
+  <si>
     <t>Extension.extension:originRelationshipType.value[x]</t>
   </si>
   <si>
@@ -528,6 +540,9 @@
     <t>Extension.extension:product.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.product</t>
+  </si>
+  <si>
     <t>Extension.extension:product.value[x]</t>
   </si>
   <si>
@@ -559,6 +574,9 @@
     <t>Extension.extension:patient.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.patient</t>
+  </si>
+  <si>
     <t>Extension.extension:patient.value[x]</t>
   </si>
   <si>
@@ -590,6 +608,9 @@
     <t>Extension.extension:matchStatus.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.matchStatus</t>
+  </si>
+  <si>
     <t>Extension.extension:matchStatus.value[x]</t>
   </si>
   <si>
@@ -647,6 +668,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer.function</t>
+  </si>
+  <si>
     <t>Extension.extension:performer.extension:function.value[x]</t>
   </si>
   <si>
@@ -675,6 +699,9 @@
   </si>
   <si>
     <t>Extension.extension:performer.extension:actor.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer.actor</t>
   </si>
   <si>
     <t>Extension.extension:performer.extension:actor.value[x]</t>
@@ -727,6 +754,9 @@
     <t>Extension.extension:location.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.location</t>
+  </si>
+  <si>
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
@@ -758,6 +788,9 @@
     <t>Extension.extension:quantity.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.quantity</t>
+  </si>
+  <si>
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
@@ -789,6 +822,9 @@
     <t>Extension.extension:preparedDate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.preparedDate</t>
+  </si>
+  <si>
     <t>Extension.extension:preparedDate.value[x]</t>
   </si>
   <si>
@@ -820,6 +856,9 @@
     <t>Extension.extension:whenHandedOver.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.whenHandedOver</t>
+  </si>
+  <si>
     <t>Extension.extension:whenHandedOver.value[x]</t>
   </si>
   <si>
@@ -847,6 +886,9 @@
     <t>Extension.extension:destination.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.destination</t>
+  </si>
+  <si>
     <t>Extension.extension:destination.value[x]</t>
   </si>
   <si>
@@ -872,6 +914,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -903,6 +948,9 @@
   </si>
   <si>
     <t>Extension.extension:usageInstruction.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.usageInstruction</t>
   </si>
   <si>
     <t>Extension.extension:usageInstruction.value[x]</t>
@@ -2051,7 +2099,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2093,7 +2141,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2108,15 +2156,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2139,7 +2187,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -2196,7 +2244,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2208,21 +2256,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2247,14 +2295,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2323,7 +2371,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2426,7 +2474,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2531,7 +2579,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2574,7 +2622,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2616,7 +2664,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2631,15 +2679,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2662,13 +2710,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2719,7 +2767,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2731,21 +2779,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2770,14 +2818,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2846,7 +2894,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2949,7 +2997,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3054,7 +3102,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3097,7 +3145,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3139,7 +3187,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3154,15 +3202,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3185,13 +3233,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3242,7 +3290,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3254,21 +3302,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3293,14 +3341,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3369,7 +3417,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3472,7 +3520,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3577,7 +3625,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3620,7 +3668,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3662,7 +3710,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3677,15 +3725,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3708,13 +3756,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3765,7 +3813,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3777,21 +3825,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3816,14 +3864,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3892,7 +3940,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3995,7 +4043,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4100,7 +4148,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4143,7 +4191,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4185,7 +4233,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4200,15 +4248,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4231,13 +4279,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4288,7 +4336,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4300,21 +4348,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4339,14 +4387,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4415,7 +4463,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4518,7 +4566,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4623,7 +4671,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4666,7 +4714,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4708,7 +4756,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4723,15 +4771,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4754,13 +4802,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4811,7 +4859,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4823,21 +4871,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4862,14 +4910,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4938,7 +4986,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5041,7 +5089,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5146,7 +5194,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5189,7 +5237,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5231,7 +5279,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5246,15 +5294,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5277,13 +5325,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5334,7 +5382,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5346,21 +5394,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5385,14 +5433,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5461,7 +5509,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5564,7 +5612,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5667,13 +5715,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5698,14 +5746,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5774,10 +5822,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5877,10 +5925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5982,10 +6030,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6025,7 +6073,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6067,7 +6115,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6082,15 +6130,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6113,13 +6161,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6170,7 +6218,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6182,21 +6230,21 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6221,14 +6269,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6297,10 +6345,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6400,10 +6448,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6505,10 +6553,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6548,7 +6596,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6590,7 +6638,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6605,15 +6653,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6636,13 +6684,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6693,7 +6741,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6705,15 +6753,15 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6756,7 +6804,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6798,7 +6846,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -6813,15 +6861,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6844,13 +6892,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6901,7 +6949,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6913,21 +6961,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6952,14 +7000,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7028,7 +7076,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7131,7 +7179,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7236,7 +7284,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7279,7 +7327,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7321,7 +7369,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -7336,15 +7384,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7367,13 +7415,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7424,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7436,21 +7484,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7475,14 +7523,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7551,7 +7599,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7654,7 +7702,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7759,7 +7807,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7802,7 +7850,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7844,7 +7892,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -7859,15 +7907,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7890,13 +7938,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7947,7 +7995,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -7959,21 +8007,21 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7998,14 +8046,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8074,7 +8122,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8177,7 +8225,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8282,7 +8330,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8325,7 +8373,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8367,7 +8415,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -8382,15 +8430,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8413,13 +8461,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8470,7 +8518,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8482,21 +8530,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8521,14 +8569,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8597,7 +8645,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -8700,7 +8748,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -8805,7 +8853,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -8848,7 +8896,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8890,7 +8938,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -8905,15 +8953,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -8936,13 +8984,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8993,7 +9041,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9005,21 +9053,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9044,14 +9092,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9120,7 +9168,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9223,7 +9271,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9328,7 +9376,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9371,7 +9419,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9413,7 +9461,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -9428,15 +9476,15 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9459,13 +9507,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9516,7 +9564,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -9528,21 +9576,21 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9567,14 +9615,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9643,7 +9691,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -9746,7 +9794,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -9851,7 +9899,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -9894,7 +9942,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -9936,7 +9984,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -9951,15 +9999,15 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -9982,13 +10030,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10039,7 +10087,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10051,21 +10099,21 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10090,14 +10138,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10166,7 +10214,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -10269,7 +10317,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -10374,7 +10422,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -10417,7 +10465,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10459,7 +10507,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>86</v>
@@ -10474,15 +10522,15 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10508,10 +10556,10 @@
         <v>87</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10562,7 +10610,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -10574,18 +10622,18 @@
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10667,7 +10715,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>86</v>
@@ -10682,15 +10730,15 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10713,13 +10761,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -10770,7 +10818,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -10782,10 +10830,10 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProductDispense.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProductDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -444,7 +444,7 @@
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProductDispense|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProductDispense|Basic)
 </t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>Extension.extension:product.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct)
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
     <t>Extension.extension:patient.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient)
 </t>
   </si>
   <si>
@@ -707,7 +707,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner)
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProductDispense.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProductDispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -444,7 +444,7 @@
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProductDispense|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProductDispense|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -482,6 +482,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Describes the lifecycle of the dispense.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-biologicallyderivedproductdispense-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:originRelationshipType</t>
   </si>
   <si>
@@ -516,6 +525,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Describes the relationship between the recipient and origin of the dispensed product.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-biologicallyderivedproductdispense-origin-relationship-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:product</t>
   </si>
   <si>
@@ -546,7 +564,7 @@
     <t>Extension.extension:product.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1)
 </t>
   </si>
   <si>
@@ -580,7 +598,7 @@
     <t>Extension.extension:patient.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -614,6 +632,12 @@
     <t>Extension.extension:matchStatus.value[x]</t>
   </si>
   <si>
+    <t>Describes the type of matching between the recipient and origin of the dispensed product.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-biologicallyderivedproductdispense-match-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:performer</t>
   </si>
   <si>
@@ -677,6 +701,12 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
+    <t>Describes the the role or function of the performer in the dispense.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-biologicallyderivedproductdispense-performer-function-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:performer.extension:actor</t>
   </si>
   <si>
@@ -707,7 +737,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1)
 </t>
   </si>
   <si>
@@ -760,7 +790,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -794,7 +824,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1303,8 +1333,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.59765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="98.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3266,13 +3296,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3310,13 +3340,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3341,14 +3371,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3417,7 +3447,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3520,7 +3550,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3625,7 +3655,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3668,7 +3698,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3730,7 +3760,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3756,13 +3786,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3789,13 +3819,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3833,13 +3863,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3864,14 +3894,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3940,7 +3970,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4043,7 +4073,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4148,7 +4178,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4191,7 +4221,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4253,7 +4283,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4279,13 +4309,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4356,13 +4386,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4387,14 +4417,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4463,7 +4493,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4566,7 +4596,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4671,7 +4701,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4714,7 +4744,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4776,7 +4806,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4802,13 +4832,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4879,13 +4909,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4910,14 +4940,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4986,7 +5016,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5089,7 +5119,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5194,7 +5224,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5237,7 +5267,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5299,7 +5329,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5325,13 +5355,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5358,13 +5388,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5402,13 +5432,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5433,14 +5463,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5509,7 +5539,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5612,7 +5642,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5715,13 +5745,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5746,14 +5776,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5822,10 +5852,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5925,10 +5955,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6030,10 +6060,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6073,7 +6103,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6135,10 +6165,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6161,13 +6191,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6194,13 +6224,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6238,13 +6268,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6269,14 +6299,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6345,10 +6375,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6448,10 +6478,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6553,10 +6583,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6596,7 +6626,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6658,10 +6688,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6684,13 +6714,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6761,7 +6791,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6804,7 +6834,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6866,7 +6896,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -6892,13 +6922,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6969,13 +6999,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7000,14 +7030,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7076,7 +7106,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7179,7 +7209,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7284,7 +7314,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7327,7 +7357,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7389,7 +7419,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7415,13 +7445,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7492,13 +7522,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7523,14 +7553,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7599,7 +7629,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7702,7 +7732,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7807,7 +7837,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7850,7 +7880,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7912,7 +7942,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -7938,13 +7968,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8015,13 +8045,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8046,14 +8076,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8122,7 +8152,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8225,7 +8255,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8330,7 +8360,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8373,7 +8403,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8435,7 +8465,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -8461,13 +8491,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8538,13 +8568,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8569,14 +8599,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8645,7 +8675,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -8748,7 +8778,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -8853,7 +8883,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -8896,7 +8926,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8958,7 +8988,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -8984,13 +9014,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9061,13 +9091,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9092,14 +9122,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9168,7 +9198,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9271,7 +9301,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9376,7 +9406,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9419,7 +9449,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9481,7 +9511,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -9507,13 +9537,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9584,13 +9614,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9615,14 +9645,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9691,7 +9721,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -9794,7 +9824,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -9899,7 +9929,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -9942,7 +9972,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10004,7 +10034,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10030,13 +10060,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10107,13 +10137,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10138,14 +10168,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10214,7 +10244,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -10317,7 +10347,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -10422,7 +10452,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -10465,7 +10495,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10527,7 +10557,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -10556,10 +10586,10 @@
         <v>87</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10761,13 +10791,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
